--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H2">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>166.4506679369011</v>
+        <v>23.89403507970089</v>
       </c>
       <c r="R2">
-        <v>1498.05601143211</v>
+        <v>215.046315717308</v>
       </c>
       <c r="S2">
-        <v>0.09146329307041444</v>
+        <v>0.01804750955248807</v>
       </c>
       <c r="T2">
-        <v>0.09146329307041444</v>
+        <v>0.01804750955248807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H3">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>233.6898627160486</v>
+        <v>159.3366598900627</v>
       </c>
       <c r="R3">
-        <v>2103.208764444438</v>
+        <v>1434.029939010564</v>
       </c>
       <c r="S3">
-        <v>0.1284106856770647</v>
+        <v>0.1203492788821773</v>
       </c>
       <c r="T3">
-        <v>0.1284106856770647</v>
+        <v>0.1203492788821773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H4">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>108.5347450391552</v>
+        <v>106.7590592718504</v>
       </c>
       <c r="R4">
-        <v>976.812705352397</v>
+        <v>960.831533446654</v>
       </c>
       <c r="S4">
-        <v>0.05963896280429536</v>
+        <v>0.08063665829553474</v>
       </c>
       <c r="T4">
-        <v>0.05963896280429536</v>
+        <v>0.08063665829553474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J5">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>343.4694239912146</v>
+        <v>72.31297032139088</v>
       </c>
       <c r="R5">
-        <v>3091.224815920931</v>
+        <v>650.8167328925178</v>
       </c>
       <c r="S5">
-        <v>0.1887336649147228</v>
+        <v>0.0546190301592386</v>
       </c>
       <c r="T5">
-        <v>0.1887336649147228</v>
+        <v>0.05461903015923861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H6">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I6">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J6">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
-        <v>482.2168846453328</v>
+        <v>482.2168846453326</v>
       </c>
       <c r="R6">
-        <v>4339.951961807995</v>
+        <v>4339.951961807994</v>
       </c>
       <c r="S6">
-        <v>0.2649742700974795</v>
+        <v>0.3642253726914936</v>
       </c>
       <c r="T6">
-        <v>0.2649742700974794</v>
+        <v>0.3642253726914936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H7">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I7">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J7">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>223.9604492050679</v>
+        <v>323.0958964826954</v>
       </c>
       <c r="R7">
-        <v>2015.644042845611</v>
+        <v>2907.863068344259</v>
       </c>
       <c r="S7">
-        <v>0.1230644518025607</v>
+        <v>0.2440389937777783</v>
       </c>
       <c r="T7">
-        <v>0.1230644518025606</v>
+        <v>0.2440389937777783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H8">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>85.58245265109224</v>
+        <v>12.88151708895956</v>
       </c>
       <c r="R8">
-        <v>770.2420738598302</v>
+        <v>115.933653800636</v>
       </c>
       <c r="S8">
-        <v>0.04702686414859603</v>
+        <v>0.009729595773090583</v>
       </c>
       <c r="T8">
-        <v>0.04702686414859603</v>
+        <v>0.009729595773090582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H9">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>120.1542286301793</v>
+        <v>85.90001230119867</v>
       </c>
       <c r="R9">
-        <v>1081.388057671614</v>
+        <v>773.100110710788</v>
       </c>
       <c r="S9">
-        <v>0.06602377487014773</v>
+        <v>0.06488151906505582</v>
       </c>
       <c r="T9">
-        <v>0.06602377487014773</v>
+        <v>0.06488151906505582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H10">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>55.80434006929345</v>
+        <v>57.55489358847979</v>
       </c>
       <c r="R10">
-        <v>502.239060623641</v>
+        <v>517.994042296318</v>
       </c>
       <c r="S10">
-        <v>0.03066403261471877</v>
+        <v>0.04347204180314304</v>
       </c>
       <c r="T10">
-        <v>0.03066403261471876</v>
+        <v>0.04347204180314303</v>
       </c>
     </row>
   </sheetData>
